--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -211,25 +211,25 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>java.util.Random</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic.AtomicLong</t>
+  </si>
+  <si>
     <t>template</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>executor</t>
-  </si>
-  <si>
-    <t>RAND</t>
-  </si>
-  <si>
-    <t>java.util.Random</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.atomic.AtomicLong</t>
   </si>
   <si>
     <t>restTemplate</t>
@@ -1598,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1606,13 +1606,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
@@ -1662,13 +1662,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -1676,13 +1676,13 @@
         <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1704,13 +1704,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -1718,13 +1718,13 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1732,13 +1732,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1746,13 +1746,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="105">
   <si>
     <t>Class Name</t>
   </si>
@@ -202,15 +204,15 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>orderManageService</t>
   </si>
   <si>
-    <t>LOG</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>executor</t>
   </si>
   <si>
@@ -220,36 +222,36 @@
     <t>java.util.Random</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>java.util.concurrent.atomic.AtomicLong</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>restTemplate</t>
   </si>
   <si>
     <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
   </si>
   <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
     <t>mapper</t>
   </si>
   <si>
     <t>com.fasterxml.jackson.databind.ObjectMapper</t>
   </si>
   <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
     <t>orderGeneratorService</t>
   </si>
   <si>
@@ -293,6 +295,48 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1468,6 +1512,294 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D4"/>
@@ -1567,10 +1899,10 @@
         <v>60</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1578,13 +1910,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -1662,13 +1994,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -1679,7 +2011,7 @@
         <v>72</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>73</v>
@@ -1693,7 +2025,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>75</v>
@@ -1704,13 +2036,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1718,13 +2050,13 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -1732,13 +2064,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1746,13 +2078,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -213,25 +213,37 @@
     <t>orderManageService</t>
   </si>
   <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>java.util.Random</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic.AtomicLong</t>
+  </si>
+  <si>
     <t>executor</t>
   </si>
   <si>
-    <t>RAND</t>
-  </si>
-  <si>
-    <t>java.util.Random</t>
-  </si>
-  <si>
     <t>template</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.atomic.AtomicLong</t>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.databind.ObjectMapper</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
     <t>restTemplate</t>
@@ -240,25 +252,13 @@
     <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
   </si>
   <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
-    <t>mapper</t>
-  </si>
-  <si>
-    <t>com.fasterxml.jackson.databind.ObjectMapper</t>
+    <t>kafkaStreamsFactory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
     <t>orderGeneratorService</t>
-  </si>
-  <si>
-    <t>kafkaStreamsFactory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1930,7 +1930,7 @@
         <v>35</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1938,13 +1938,13 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -1952,13 +1952,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>67</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -1994,13 +1994,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2036,13 +2036,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -2056,7 +2056,7 @@
         <v>35</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2064,13 +2064,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
@@ -2078,13 +2078,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2092,13 +2092,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="114">
   <si>
     <t>Class Name</t>
   </si>
@@ -213,25 +213,37 @@
     <t>orderManageService</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>RAND</t>
   </si>
   <si>
     <t>java.util.Random</t>
   </si>
   <si>
+    <t>executor</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>java.util.concurrent.atomic.AtomicLong</t>
   </si>
   <si>
-    <t>executor</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
+    <t>restTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
+  </si>
+  <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
     <t>mapper</t>
@@ -240,18 +252,6 @@
     <t>com.fasterxml.jackson.databind.ObjectMapper</t>
   </si>
   <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
-    <t>restTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
-  </si>
-  <si>
     <t>kafkaStreamsFactory</t>
   </si>
   <si>
@@ -300,31 +300,55 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>OrderAppTest()</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>10</t>
+    <t>OrderApp()</t>
+  </si>
+  <si>
+    <t>KafkaContainerDevMode()</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>OrderGeneratorService(java.util.concurrent.Executor, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OrderControllerTests()</t>
   </si>
   <si>
     <t>4</t>
@@ -336,7 +360,10 @@
     <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
   </si>
   <si>
-    <t>5</t>
+    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean, pl.piomin.order.service.OrderGeneratorService)</t>
+  </si>
+  <si>
+    <t>OrderManageService()</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1616,18 +1643,18 @@
         <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -1635,10 +1662,10 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -1646,10 +1673,10 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -1657,10 +1684,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1668,10 +1695,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1679,10 +1706,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1690,10 +1717,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1701,29 +1728,29 @@
         <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>99</v>
@@ -1731,68 +1758,145 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B24" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>104</v>
+      <c r="C24" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1980,13 +2084,13 @@
         <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1994,13 +2098,13 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -2036,13 +2140,13 @@
         <v>52</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2064,13 +2168,13 @@
         <v>52</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -2078,13 +2182,13 @@
         <v>52</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -2092,13 +2196,13 @@
         <v>52</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>35</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="113">
   <si>
     <t>Class Name</t>
   </si>
@@ -319,9 +319,6 @@
   </si>
   <si>
     <t>OrderAppTest()</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>10</t>
@@ -1654,7 +1651,7 @@
         <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -1709,7 +1706,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1720,7 +1717,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1731,7 +1728,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1742,7 +1739,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -1750,10 +1747,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -1772,10 +1769,10 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -1786,7 +1783,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1794,10 +1791,10 @@
         <v>41</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>106</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>107</v>
       </c>
     </row>
     <row r="17">
@@ -1808,7 +1805,7 @@
         <v>44</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1816,10 +1813,10 @@
         <v>43</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1830,7 +1827,7 @@
         <v>53</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1841,7 +1838,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -1852,7 +1849,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
@@ -1860,10 +1857,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
@@ -1871,10 +1868,10 @@
         <v>52</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -1893,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="112">
   <si>
     <t>Class Name</t>
   </si>
@@ -57,15 +57,36 @@
     <t>void</t>
   </si>
   <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>getClass()</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>notifyAll()</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>wait()</t>
+  </si>
+  <si>
+    <t>OrderAppTest()</t>
+  </si>
+  <si>
     <t>notify()</t>
   </si>
   <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
@@ -75,33 +96,18 @@
     <t>wait(long, int)</t>
   </si>
   <si>
-    <t>getClass()</t>
-  </si>
-  <si>
-    <t>java.lang.Class</t>
-  </si>
-  <si>
     <t>clone()</t>
   </si>
   <si>
     <t>java.lang.Object</t>
   </si>
   <si>
-    <t>notifyAll()</t>
-  </si>
-  <si>
-    <t>hashCode()</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wait()</t>
-  </si>
-  <si>
     <t>pl.piomin.order.OrderApp</t>
   </si>
   <si>
+    <t>OrderApp()</t>
+  </si>
+  <si>
     <t>stream(org.apache.kafka.streams.StreamsBuilder)</t>
   </si>
   <si>
@@ -147,12 +153,18 @@
     <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
+    <t>KafkaContainerDevMode()</t>
+  </si>
+  <si>
     <t>pl.piomin.order.service.OrderGeneratorService</t>
   </si>
   <si>
     <t>generate()</t>
   </si>
   <si>
+    <t>OrderGeneratorService(java.util.concurrent.Executor, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
     <t>pl.piomin.order.OrderControllerTests</t>
   </si>
   <si>
@@ -162,9 +174,15 @@
     <t/>
   </si>
   <si>
+    <t>OrderControllerTests()</t>
+  </si>
+  <si>
     <t>pl.piomin.order.service.OrderManageService</t>
   </si>
   <si>
+    <t>OrderManageService()</t>
+  </si>
+  <si>
     <t>confirm(pl.piomin.base.domain.Order, pl.piomin.base.domain.Order)</t>
   </si>
   <si>
@@ -195,6 +213,9 @@
     <t>create()</t>
   </si>
   <si>
+    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean, pl.piomin.order.service.OrderGeneratorService)</t>
+  </si>
+  <si>
     <t>Field Name</t>
   </si>
   <si>
@@ -204,13 +225,22 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>orderManageService</t>
+  </si>
+  <si>
     <t>LOG</t>
   </si>
   <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>orderManageService</t>
+    <t>executor</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>java.util.Random</t>
   </si>
   <si>
     <t>template</t>
@@ -219,48 +249,39 @@
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>RAND</t>
-  </si>
-  <si>
-    <t>java.util.Random</t>
-  </si>
-  <si>
-    <t>executor</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>java.util.concurrent.atomic.AtomicLong</t>
   </si>
   <si>
+    <t>factory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.ConsumerFactory</t>
+  </si>
+  <si>
     <t>restTemplate</t>
   </si>
   <si>
     <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
   </si>
   <si>
-    <t>factory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.ConsumerFactory</t>
-  </si>
-  <si>
     <t>mapper</t>
   </si>
   <si>
     <t>com.fasterxml.jackson.databind.ObjectMapper</t>
   </si>
   <si>
+    <t>orderGeneratorService</t>
+  </si>
+  <si>
     <t>kafkaStreamsFactory</t>
   </si>
   <si>
     <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
-    <t>orderGeneratorService</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -318,9 +339,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>OrderAppTest()</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -330,24 +348,9 @@
     <t>8</t>
   </si>
   <si>
-    <t>OrderApp()</t>
-  </si>
-  <si>
-    <t>KafkaContainerDevMode()</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>OrderGeneratorService(java.util.concurrent.Executor, org.springframework.kafka.core.KafkaTemplate)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>OrderControllerTests()</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -355,12 +358,6 @@
   </si>
   <si>
     <t>lambda$all$0(java.util.List, org.apache.kafka.streams.KeyValue)</t>
-  </si>
-  <si>
-    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean, pl.piomin.order.service.OrderGeneratorService)</t>
-  </si>
-  <si>
-    <t>OrderManageService()</t>
   </si>
 </sst>
 </file>
@@ -405,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -464,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -472,13 +469,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
@@ -500,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
@@ -528,13 +525,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -542,13 +539,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -576,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -584,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -595,122 +592,122 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -721,66 +718,66 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -791,27 +788,27 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
         <v>10</v>
@@ -819,27 +816,27 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s" s="0">
         <v>10</v>
@@ -847,108 +844,108 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -959,38 +956,38 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -1001,24 +998,24 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -1029,27 +1026,27 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>10</v>
@@ -1057,41 +1054,41 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>10</v>
@@ -1099,52 +1096,52 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1155,38 +1152,38 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
@@ -1197,27 +1194,27 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>10</v>
@@ -1225,55 +1222,55 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s" s="0">
         <v>10</v>
@@ -1281,111 +1278,111 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>10</v>
@@ -1393,10 +1390,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -1407,128 +1404,212 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B86" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C80" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s" s="0">
-        <v>10</v>
+      <c r="C86" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -1557,55 +1638,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1629,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -1637,263 +1718,186 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1911,13 +1915,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -1925,44 +1929,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1983,223 +2001,223 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2217,19 +2235,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2247,19 +2265,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2277,36 +2295,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2324,19 +2342,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2354,19 +2372,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2384,19 +2402,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>90</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -234,25 +234,31 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic.AtomicLong</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>java.util.Random</t>
+  </si>
+  <si>
     <t>executor</t>
   </si>
   <si>
-    <t>RAND</t>
-  </si>
-  <si>
-    <t>java.util.Random</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.atomic.AtomicLong</t>
+    <t>restTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
   </si>
   <si>
     <t>factory</t>
@@ -261,25 +267,19 @@
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
-    <t>restTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
-  </si>
-  <si>
     <t>mapper</t>
   </si>
   <si>
     <t>com.fasterxml.jackson.databind.ObjectMapper</t>
   </si>
   <si>
+    <t>kafkaStreamsFactory</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
+  </si>
+  <si>
     <t>orderGeneratorService</t>
-  </si>
-  <si>
-    <t>kafkaStreamsFactory</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2049,7 +2049,7 @@
         <v>37</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2057,13 +2057,13 @@
         <v>44</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2071,13 +2071,13 @@
         <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -2085,13 +2085,13 @@
         <v>44</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>76</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -2102,7 +2102,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>78</v>
@@ -2116,7 +2116,7 @@
         <v>79</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>80</v>
@@ -2127,13 +2127,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -2155,13 +2155,13 @@
         <v>58</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2169,13 +2169,13 @@
         <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2189,7 +2189,7 @@
         <v>37</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -2197,13 +2197,13 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -2211,13 +2211,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="112">
   <si>
     <t>Class Name</t>
   </si>
@@ -210,10 +210,10 @@
     <t>java.util.List</t>
   </si>
   <si>
+    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean, pl.piomin.order.service.OrderGeneratorService)</t>
+  </si>
+  <si>
     <t>create()</t>
-  </si>
-  <si>
-    <t>OrderController(org.springframework.kafka.core.KafkaTemplate, org.springframework.kafka.config.StreamsBuilderFactoryBean, pl.piomin.order.service.OrderGeneratorService)</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -1861,7 +1861,7 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>109</v>
@@ -1907,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1932,13 +1932,13 @@
         <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1946,13 +1946,13 @@
         <v>58</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1960,13 +1960,13 @@
         <v>58</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1974,12 +1974,138 @@
         <v>58</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -2315,7 +2441,7 @@
         <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>44</v>

--- a/data/sample-spring-kafka-microservices/order-service_structure.xlsx
+++ b/data/sample-spring-kafka-microservices/order-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="113">
   <si>
     <t>Class Name</t>
   </si>
@@ -234,24 +234,24 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>RAND</t>
+  </si>
+  <si>
+    <t>java.util.Random</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>java.util.concurrent.atomic.AtomicLong</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
-    <t>RAND</t>
-  </si>
-  <si>
-    <t>java.util.Random</t>
-  </si>
-  <si>
     <t>executor</t>
   </si>
   <si>
@@ -261,16 +261,19 @@
     <t>org.springframework.boot.test.web.client.TestRestTemplate</t>
   </si>
   <si>
+    <t>mapper</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.databind.ObjectMapper</t>
+  </si>
+  <si>
     <t>factory</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.ConsumerFactory</t>
   </si>
   <si>
-    <t>mapper</t>
-  </si>
-  <si>
-    <t>com.fasterxml.jackson.databind.ObjectMapper</t>
+    <t>orderGeneratorService</t>
   </si>
   <si>
     <t>kafkaStreamsFactory</t>
@@ -279,9 +282,6 @@
     <t>org.springframework.kafka.config.StreamsBuilderFactoryBean</t>
   </si>
   <si>
-    <t>orderGeneratorService</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>9</t>
@@ -1809,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -1831,7 +1834,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
@@ -1864,7 +1867,7 @@
         <v>63</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -1875,7 +1878,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1883,10 +1886,10 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -2239,13 +2242,13 @@
         <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2253,13 +2256,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -2270,7 +2273,7 @@
         <v>81</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>82</v>
@@ -2295,13 +2298,13 @@
         <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2309,13 +2312,13 @@
         <v>58</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2323,13 +2326,13 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -2337,13 +2340,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
